--- a/spliced/falling/2023-03-25_18-03-28/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-28/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1035,34 +1035,6 @@
         <v>-0.0012217304902151</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.003773307800292898</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.2548617899417878</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-0.1365976125001907</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0019853119738399</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0036651915870606</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0067195175215601</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-03-28/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-28/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.4378628730773919</v>
+        <v>-0.1574550628662107</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1533573150634768</v>
+        <v>0.1197370529174804</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.335271286964417</v>
+        <v>-0.3381910085678101</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0447458773851394</v>
+        <v>-0.0337503030896186</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1001818999648094</v>
+        <v>0.09865473955869671</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0022907445672899</v>
+        <v>-0.0665843114256858</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2312893986701963</v>
+        <v>-0.3228707909584047</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.572000253200532</v>
+        <v>0.1800707578659058</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.991752985119822</v>
+        <v>-0.2396511320024727</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0861319974064827</v>
+        <v>-0.0201585534960031</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4196644127368927</v>
+        <v>-0.0109955742955207</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0219911485910415</v>
+        <v>-0.0201585534960031</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.05911626815795876</v>
+        <v>-0.3687732219696044</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.518646645545961</v>
+        <v>0.22406005859375</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.819378316402437</v>
+        <v>-0.1331830434501169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1461495161056518</v>
+        <v>0.0261144898831844</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6041457056999207</v>
+        <v>-0.0386372283101081</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3318525552749634</v>
+        <v>0.0106901414692401</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.867481225728992</v>
+        <v>-0.3819821834564209</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.808535265922549</v>
+        <v>0.1978947639465331</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.745611393451694</v>
+        <v>-0.2025355234742165</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2295326143503189</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7486153841018677</v>
+        <v>-0.0545197241008281</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0561996027827262</v>
+        <v>0.0339030213654041</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.066653013229371</v>
+        <v>-0.3319910526275633</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.002454280853272</v>
+        <v>0.2015152931213379</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.322827577590942</v>
+        <v>-0.2596112400293351</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7399105429649353</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0711658000946044</v>
+        <v>-0.0274889357388019</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.335504174232483</v>
+        <v>-0.0103847095742821</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.651154989004131</v>
+        <v>-0.3998157501220704</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.045457839965813</v>
+        <v>0.1588554024696349</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.523038685321813</v>
+        <v>-0.4224489629268647</v>
       </c>
       <c r="F7" t="n">
-        <v>4.26658821105957</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="G7" t="n">
-        <v>2.570826292037964</v>
+        <v>-0.0116064399480819</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.828750610351562</v>
+        <v>-0.0108428578823804</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.538045167922988</v>
+        <v>-0.4262521266937255</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1250472068786557</v>
+        <v>-0.03637795448303255</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.249881243705746</v>
+        <v>-0.570676848292351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.669966459274292</v>
+        <v>0.0427605658769607</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3785837292671203</v>
+        <v>0.0514653958380222</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.870913982391357</v>
+        <v>-0.0694859251379966</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>21.8330995559694</v>
+        <v>-0.5638278126716616</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.8298350632190838</v>
+        <v>-0.07290470600128157</v>
       </c>
       <c r="E9" t="n">
-        <v>8.03648120164879</v>
+        <v>-1.039905160665513</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.501964926719666</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1320996135473251</v>
+        <v>-0.0441350154578685</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.118036150932312</v>
+        <v>0.0128281703218817</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36.38044357299789</v>
+        <v>-0.4378628730773919</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.828326940536493</v>
+        <v>-0.1533573150634768</v>
       </c>
       <c r="E10" t="n">
-        <v>15.55662982463829</v>
+        <v>-1.335271286964417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0074830991216003</v>
+        <v>0.0447458773851394</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1238529309630394</v>
+        <v>-0.1001818999648094</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8869763612747192</v>
+        <v>0.0022907445672899</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.2419787645339966</v>
+        <v>-0.2312893986701963</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.207208663225174</v>
+        <v>-0.572000253200532</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.5454361662268639</v>
+        <v>-1.991752985119822</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0334448739886283</v>
+        <v>0.0861319974064827</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0073303831741213</v>
+        <v>-0.4196644127368927</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.1014036312699318</v>
+        <v>0.0219911485910415</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.3278889179229798</v>
+        <v>-0.05911626815795876</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.6977443240582908</v>
+        <v>-1.518646645545961</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3904904812574392</v>
+        <v>-2.819378316402437</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4305072724819183</v>
+        <v>0.1461495161056518</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0621555373072624</v>
+        <v>-0.6041457056999207</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0183259565383195</v>
+        <v>0.3318525552749634</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6186044454574491</v>
+        <v>-0.867481225728992</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1085777457803506</v>
+        <v>-2.808535265922549</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.6750323086977017</v>
+        <v>-3.745611393451694</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.069319605827332</v>
+        <v>0.2295326143503189</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0797179117798805</v>
+        <v>-0.7486153841018677</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1148426681756973</v>
+        <v>0.0561996027827262</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.584584712982176</v>
+        <v>-2.066653013229371</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.268941026926038</v>
+        <v>-4.002454280853272</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4205022692680305</v>
+        <v>-4.322827577590942</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2054034322500229</v>
+        <v>0.7399105429649353</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0172569435089826</v>
+        <v>0.0711658000946044</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.1675297915935516</v>
+        <v>-1.335504174232483</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.204359865188596</v>
+        <v>-1.651154989004131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3030472241342062</v>
+        <v>-3.045457839965813</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2759267613291676</v>
+        <v>-5.523038685321813</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0361937656998634</v>
+        <v>4.26658821105957</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0485637858510017</v>
+        <v>2.570826292037964</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1411098688840866</v>
+        <v>-3.828750610351562</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.6684749126434326</v>
+        <v>-3.538045167922988</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3942791000008581</v>
+        <v>-0.1250472068786557</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.052078396081925</v>
+        <v>-6.249881243705746</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1175915598869323</v>
+        <v>0.669966459274292</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0036651915870606</v>
+        <v>-0.3785837292671203</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0314595587551593</v>
+        <v>-2.870913982391357</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.5069202423095689</v>
+        <v>21.8330995559694</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8594004645943611</v>
+        <v>-0.8298350632190838</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3887748748064006</v>
+        <v>8.03648120164879</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.090866208076477</v>
+        <v>-1.501964926719666</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0201585534960031</v>
+        <v>0.1320996135473251</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0360410511493682</v>
+        <v>-1.118036150932312</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1816680908203125</v>
+        <v>36.38044357299789</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3003633975982678</v>
+        <v>-2.828326940536493</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3908397436141963</v>
+        <v>15.55662982463829</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.007177666760981</v>
+        <v>0.0074830991216003</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.072540245950222</v>
+        <v>0.1238529309630394</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0835358202457428</v>
+        <v>0.8869763612747192</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.2214233398437506</v>
+        <v>-0.2419787645339966</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5106331750750528</v>
+        <v>-1.207208663225174</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1910619698464848</v>
+        <v>-0.5454361662268639</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0241291765123605</v>
+        <v>0.0334448739886283</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0126754539087414</v>
+        <v>-0.0073303831741213</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0610865242779254</v>
+        <v>-0.1014036312699318</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3159080505371084</v>
+        <v>0.3278889179229798</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2065896064043048</v>
+        <v>-0.6977443240582908</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2784154430031768</v>
+        <v>-0.3904904812574392</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0061086523346602</v>
+        <v>-0.4305072724819183</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0195476878434419</v>
+        <v>-0.0621555373072624</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0714712366461753</v>
+        <v>0.0183259565383195</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.6186044454574491</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.1085777457803506</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.6750323086977017</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-1.069319605827332</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0797179117798805</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.1148426681756973</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.584584712982176</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.268941026926038</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.4205022692680305</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.2054034322500229</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0172569435089826</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.1675297915935516</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.204359865188596</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.3030472241342062</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2759267613291676</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0361937656998634</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0485637858510017</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1411098688840866</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.6684749126434326</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3942791000008581</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.052078396081925</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1175915598869323</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0036651915870606</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0314595587551593</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5069202423095689</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8594004645943611</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.3887748748064006</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.090866208076477</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0201585534960031</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0360410511493682</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1816680908203125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.3003633975982678</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.3908397436141963</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.007177666760981</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.072540245950222</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.0835358202457428</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2214233398437506</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5106331750750528</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1910619698464848</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0241291765123605</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.0126754539087414</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0610865242779254</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.3159080505371084</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.2065896064043048</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.2784154430031768</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0061086523346602</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.0195476878434419</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.0714712366461753</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>-0.06431400775909421</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>0.2912909723818302</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E29" t="n">
         <v>-0.08320332318544384</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>0.0032070425804704</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>0.0010690141934901</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>-0.0012217304902151</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.003773307800292898</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.2548617899417878</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1365976125001907</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0019853119738399</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0036651915870606</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0067195175215601</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01674773693084754</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.2881045341491697</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.1470022119581697</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0003054326225537</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.00167987938039</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0142026171088218</v>
       </c>
     </row>
   </sheetData>
